--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cadm1-Cadm1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cadm1-Cadm1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.747564666666667</v>
+        <v>0.8244693333333334</v>
       </c>
       <c r="H2">
-        <v>8.242694</v>
+        <v>2.473408</v>
       </c>
       <c r="I2">
-        <v>0.2756902755784301</v>
+        <v>0.04531162661728313</v>
       </c>
       <c r="J2">
-        <v>0.2756902755784301</v>
+        <v>0.04531162661728313</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.747564666666667</v>
+        <v>0.8244693333333334</v>
       </c>
       <c r="N2">
-        <v>8.242694</v>
+        <v>2.473408</v>
       </c>
       <c r="O2">
-        <v>0.2756902755784301</v>
+        <v>0.04531162661728313</v>
       </c>
       <c r="P2">
-        <v>0.2756902755784301</v>
+        <v>0.04531162661728313</v>
       </c>
       <c r="Q2">
-        <v>7.549111597515112</v>
+        <v>0.6797496816071112</v>
       </c>
       <c r="R2">
-        <v>67.942004377636</v>
+        <v>6.117747134464</v>
       </c>
       <c r="S2">
-        <v>0.07600512804851071</v>
+        <v>0.002053143506704081</v>
       </c>
       <c r="T2">
-        <v>0.07600512804851071</v>
+        <v>0.002053143506704081</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.747564666666667</v>
+        <v>0.8244693333333334</v>
       </c>
       <c r="H3">
-        <v>8.242694</v>
+        <v>2.473408</v>
       </c>
       <c r="I3">
-        <v>0.2756902755784301</v>
+        <v>0.04531162661728313</v>
       </c>
       <c r="J3">
-        <v>0.2756902755784301</v>
+        <v>0.04531162661728313</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.051595</v>
       </c>
       <c r="O3">
-        <v>0.001725678494005612</v>
+        <v>0.0009451952024569835</v>
       </c>
       <c r="P3">
-        <v>0.001725678494005613</v>
+        <v>0.0009451952024569837</v>
       </c>
       <c r="Q3">
-        <v>0.04725353299222222</v>
+        <v>0.01417949841777778</v>
       </c>
       <c r="R3">
-        <v>0.42528179693</v>
+        <v>0.12761548576</v>
       </c>
       <c r="S3">
-        <v>0.0004757527795721775</v>
+        <v>4.282833209417817E-05</v>
       </c>
       <c r="T3">
-        <v>0.0004757527795721776</v>
+        <v>4.282833209417818E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.747564666666667</v>
+        <v>0.8244693333333334</v>
       </c>
       <c r="H4">
-        <v>8.242694</v>
+        <v>2.473408</v>
       </c>
       <c r="I4">
-        <v>0.2756902755784301</v>
+        <v>0.04531162661728313</v>
       </c>
       <c r="J4">
-        <v>0.2756902755784301</v>
+        <v>0.04531162661728313</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.535068333333334</v>
+        <v>3.182317</v>
       </c>
       <c r="N4">
-        <v>7.605205000000001</v>
+        <v>9.546951</v>
       </c>
       <c r="O4">
-        <v>0.2543684215719345</v>
+        <v>0.1748954798583565</v>
       </c>
       <c r="P4">
-        <v>0.2543684215719344</v>
+        <v>0.1748954798583565</v>
       </c>
       <c r="Q4">
-        <v>6.965264180252224</v>
+        <v>2.623722775445333</v>
       </c>
       <c r="R4">
-        <v>62.68737762227001</v>
+        <v>23.613504979008</v>
       </c>
       <c r="S4">
-        <v>0.07012690024161689</v>
+        <v>0.007924798680392409</v>
       </c>
       <c r="T4">
-        <v>0.07012690024161687</v>
+        <v>0.007924798680392409</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.747564666666667</v>
+        <v>0.8244693333333334</v>
       </c>
       <c r="H5">
-        <v>8.242694</v>
+        <v>2.473408</v>
       </c>
       <c r="I5">
-        <v>0.2756902755784301</v>
+        <v>0.04531162661728313</v>
       </c>
       <c r="J5">
-        <v>0.2756902755784301</v>
+        <v>0.04531162661728313</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.666297</v>
+        <v>14.17155133333333</v>
       </c>
       <c r="N5">
-        <v>13.998891</v>
+        <v>42.514654</v>
       </c>
       <c r="O5">
-        <v>0.4682156243556299</v>
+        <v>0.7788476983219034</v>
       </c>
       <c r="P5">
-        <v>0.4682156243556299</v>
+        <v>0.7788476983219035</v>
       </c>
       <c r="Q5">
-        <v>12.82095276137267</v>
+        <v>11.68400948009245</v>
       </c>
       <c r="R5">
-        <v>115.388574852354</v>
+        <v>105.156085320832</v>
       </c>
       <c r="S5">
-        <v>0.1290824945087303</v>
+        <v>0.03529085609809245</v>
       </c>
       <c r="T5">
-        <v>0.1290824945087303</v>
+        <v>0.03529085609809246</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.051595</v>
       </c>
       <c r="I6">
-        <v>0.001725678494005612</v>
+        <v>0.0009451952024569835</v>
       </c>
       <c r="J6">
-        <v>0.001725678494005613</v>
+        <v>0.0009451952024569837</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.747564666666667</v>
+        <v>0.8244693333333334</v>
       </c>
       <c r="N6">
-        <v>8.242694</v>
+        <v>2.473408</v>
       </c>
       <c r="O6">
-        <v>0.2756902755784301</v>
+        <v>0.04531162661728313</v>
       </c>
       <c r="P6">
-        <v>0.2756902755784301</v>
+        <v>0.04531162661728313</v>
       </c>
       <c r="Q6">
-        <v>0.04725353299222222</v>
+        <v>0.01417949841777778</v>
       </c>
       <c r="R6">
-        <v>0.42528179693</v>
+        <v>0.12761548576</v>
       </c>
       <c r="S6">
-        <v>0.0004757527795721775</v>
+        <v>4.282833209417817E-05</v>
       </c>
       <c r="T6">
-        <v>0.0004757527795721776</v>
+        <v>4.282833209417818E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.051595</v>
       </c>
       <c r="I7">
-        <v>0.001725678494005612</v>
+        <v>0.0009451952024569835</v>
       </c>
       <c r="J7">
-        <v>0.001725678494005613</v>
+        <v>0.0009451952024569837</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,10 +868,10 @@
         <v>0.051595</v>
       </c>
       <c r="O7">
-        <v>0.001725678494005612</v>
+        <v>0.0009451952024569835</v>
       </c>
       <c r="P7">
-        <v>0.001725678494005613</v>
+        <v>0.0009451952024569837</v>
       </c>
       <c r="Q7">
         <v>0.0002957826694444445</v>
@@ -880,10 +880,10 @@
         <v>0.002662044025</v>
       </c>
       <c r="S7">
-        <v>2.977966264673479E-06</v>
+        <v>8.93393970747698E-07</v>
       </c>
       <c r="T7">
-        <v>2.977966264673479E-06</v>
+        <v>8.933939707476985E-07</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.051595</v>
       </c>
       <c r="I8">
-        <v>0.001725678494005612</v>
+        <v>0.0009451952024569835</v>
       </c>
       <c r="J8">
-        <v>0.001725678494005613</v>
+        <v>0.0009451952024569837</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.535068333333334</v>
+        <v>3.182317</v>
       </c>
       <c r="N8">
-        <v>7.605205000000001</v>
+        <v>9.546951</v>
       </c>
       <c r="O8">
-        <v>0.2543684215719345</v>
+        <v>0.1748954798583565</v>
       </c>
       <c r="P8">
-        <v>0.2543684215719344</v>
+        <v>0.1748954798583565</v>
       </c>
       <c r="Q8">
-        <v>0.04359895021944445</v>
+        <v>0.05473054853833333</v>
       </c>
       <c r="R8">
-        <v>0.3923905519750001</v>
+        <v>0.492574936845</v>
       </c>
       <c r="S8">
-        <v>0.0004389581146608406</v>
+        <v>0.0001653103684935305</v>
       </c>
       <c r="T8">
-        <v>0.0004389581146608405</v>
+        <v>0.0001653103684935306</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.051595</v>
       </c>
       <c r="I9">
-        <v>0.001725678494005612</v>
+        <v>0.0009451952024569835</v>
       </c>
       <c r="J9">
-        <v>0.001725678494005613</v>
+        <v>0.0009451952024569837</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.666297</v>
+        <v>14.17155133333333</v>
       </c>
       <c r="N9">
-        <v>13.998891</v>
+        <v>42.514654</v>
       </c>
       <c r="O9">
-        <v>0.4682156243556299</v>
+        <v>0.7788476983219034</v>
       </c>
       <c r="P9">
-        <v>0.4682156243556299</v>
+        <v>0.7788476983219035</v>
       </c>
       <c r="Q9">
-        <v>0.08025253123833333</v>
+        <v>0.2437270636811111</v>
       </c>
       <c r="R9">
-        <v>0.722272781145</v>
+        <v>2.19354357313</v>
       </c>
       <c r="S9">
-        <v>0.000807989633507921</v>
+        <v>0.0007361631078985271</v>
       </c>
       <c r="T9">
-        <v>0.0008079896335079211</v>
+        <v>0.0007361631078985273</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.535068333333334</v>
+        <v>3.182317</v>
       </c>
       <c r="H10">
-        <v>7.605205000000001</v>
+        <v>9.546951</v>
       </c>
       <c r="I10">
-        <v>0.2543684215719345</v>
+        <v>0.1748954798583565</v>
       </c>
       <c r="J10">
-        <v>0.2543684215719344</v>
+        <v>0.1748954798583565</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.747564666666667</v>
+        <v>0.8244693333333334</v>
       </c>
       <c r="N10">
-        <v>8.242694</v>
+        <v>2.473408</v>
       </c>
       <c r="O10">
-        <v>0.2756902755784301</v>
+        <v>0.04531162661728313</v>
       </c>
       <c r="P10">
-        <v>0.2756902755784301</v>
+        <v>0.04531162661728313</v>
       </c>
       <c r="Q10">
-        <v>6.965264180252224</v>
+        <v>2.623722775445333</v>
       </c>
       <c r="R10">
-        <v>62.68737762227001</v>
+        <v>23.613504979008</v>
       </c>
       <c r="S10">
-        <v>0.07012690024161689</v>
+        <v>0.007924798680392409</v>
       </c>
       <c r="T10">
-        <v>0.07012690024161687</v>
+        <v>0.007924798680392409</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,16 +1092,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.535068333333334</v>
+        <v>3.182317</v>
       </c>
       <c r="H11">
-        <v>7.605205000000001</v>
+        <v>9.546951</v>
       </c>
       <c r="I11">
-        <v>0.2543684215719345</v>
+        <v>0.1748954798583565</v>
       </c>
       <c r="J11">
-        <v>0.2543684215719344</v>
+        <v>0.1748954798583565</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,22 +1116,22 @@
         <v>0.051595</v>
       </c>
       <c r="O11">
-        <v>0.001725678494005612</v>
+        <v>0.0009451952024569835</v>
       </c>
       <c r="P11">
-        <v>0.001725678494005613</v>
+        <v>0.0009451952024569837</v>
       </c>
       <c r="Q11">
-        <v>0.04359895021944445</v>
+        <v>0.05473054853833333</v>
       </c>
       <c r="R11">
-        <v>0.3923905519750001</v>
+        <v>0.492574936845</v>
       </c>
       <c r="S11">
-        <v>0.0004389581146608406</v>
+        <v>0.0001653103684935305</v>
       </c>
       <c r="T11">
-        <v>0.0004389581146608405</v>
+        <v>0.0001653103684935306</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,16 +1154,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.535068333333334</v>
+        <v>3.182317</v>
       </c>
       <c r="H12">
-        <v>7.605205000000001</v>
+        <v>9.546951</v>
       </c>
       <c r="I12">
-        <v>0.2543684215719345</v>
+        <v>0.1748954798583565</v>
       </c>
       <c r="J12">
-        <v>0.2543684215719344</v>
+        <v>0.1748954798583565</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1172,28 +1172,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.535068333333334</v>
+        <v>3.182317</v>
       </c>
       <c r="N12">
-        <v>7.605205000000001</v>
+        <v>9.546951</v>
       </c>
       <c r="O12">
-        <v>0.2543684215719345</v>
+        <v>0.1748954798583565</v>
       </c>
       <c r="P12">
-        <v>0.2543684215719344</v>
+        <v>0.1748954798583565</v>
       </c>
       <c r="Q12">
-        <v>6.426571454669446</v>
+        <v>10.127141488489</v>
       </c>
       <c r="R12">
-        <v>57.83914309202501</v>
+        <v>91.144273396401</v>
       </c>
       <c r="S12">
-        <v>0.06470329389299737</v>
+        <v>0.03058842887488477</v>
       </c>
       <c r="T12">
-        <v>0.06470329389299734</v>
+        <v>0.03058842887488477</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,16 +1216,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.535068333333334</v>
+        <v>3.182317</v>
       </c>
       <c r="H13">
-        <v>7.605205000000001</v>
+        <v>9.546951</v>
       </c>
       <c r="I13">
-        <v>0.2543684215719345</v>
+        <v>0.1748954798583565</v>
       </c>
       <c r="J13">
-        <v>0.2543684215719344</v>
+        <v>0.1748954798583565</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1234,28 +1234,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.666297</v>
+        <v>14.17155133333333</v>
       </c>
       <c r="N13">
-        <v>13.998891</v>
+        <v>42.514654</v>
       </c>
       <c r="O13">
-        <v>0.4682156243556299</v>
+        <v>0.7788476983219034</v>
       </c>
       <c r="P13">
-        <v>0.4682156243556299</v>
+        <v>0.7788476983219035</v>
       </c>
       <c r="Q13">
-        <v>11.82938175862833</v>
+        <v>45.09836872443933</v>
       </c>
       <c r="R13">
-        <v>106.464435827655</v>
+        <v>405.885318519954</v>
       </c>
       <c r="S13">
-        <v>0.1190992693226594</v>
+        <v>0.1362169419345858</v>
       </c>
       <c r="T13">
-        <v>0.1190992693226594</v>
+        <v>0.1362169419345858</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,16 +1278,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.666297</v>
+        <v>14.17155133333333</v>
       </c>
       <c r="H14">
-        <v>13.998891</v>
+        <v>42.514654</v>
       </c>
       <c r="I14">
-        <v>0.4682156243556299</v>
+        <v>0.7788476983219034</v>
       </c>
       <c r="J14">
-        <v>0.4682156243556299</v>
+        <v>0.7788476983219035</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1296,28 +1296,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.747564666666667</v>
+        <v>0.8244693333333334</v>
       </c>
       <c r="N14">
-        <v>8.242694</v>
+        <v>2.473408</v>
       </c>
       <c r="O14">
-        <v>0.2756902755784301</v>
+        <v>0.04531162661728313</v>
       </c>
       <c r="P14">
-        <v>0.2756902755784301</v>
+        <v>0.04531162661728313</v>
       </c>
       <c r="Q14">
-        <v>12.82095276137267</v>
+        <v>11.68400948009245</v>
       </c>
       <c r="R14">
-        <v>115.388574852354</v>
+        <v>105.156085320832</v>
       </c>
       <c r="S14">
-        <v>0.1290824945087303</v>
+        <v>0.03529085609809245</v>
       </c>
       <c r="T14">
-        <v>0.1290824945087303</v>
+        <v>0.03529085609809246</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,16 +1340,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.666297</v>
+        <v>14.17155133333333</v>
       </c>
       <c r="H15">
-        <v>13.998891</v>
+        <v>42.514654</v>
       </c>
       <c r="I15">
-        <v>0.4682156243556299</v>
+        <v>0.7788476983219034</v>
       </c>
       <c r="J15">
-        <v>0.4682156243556299</v>
+        <v>0.7788476983219035</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1364,22 +1364,22 @@
         <v>0.051595</v>
       </c>
       <c r="O15">
-        <v>0.001725678494005612</v>
+        <v>0.0009451952024569835</v>
       </c>
       <c r="P15">
-        <v>0.001725678494005613</v>
+        <v>0.0009451952024569837</v>
       </c>
       <c r="Q15">
-        <v>0.08025253123833333</v>
+        <v>0.2437270636811111</v>
       </c>
       <c r="R15">
-        <v>0.722272781145</v>
+        <v>2.19354357313</v>
       </c>
       <c r="S15">
-        <v>0.000807989633507921</v>
+        <v>0.0007361631078985271</v>
       </c>
       <c r="T15">
-        <v>0.0008079896335079211</v>
+        <v>0.0007361631078985273</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,16 +1402,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.666297</v>
+        <v>14.17155133333333</v>
       </c>
       <c r="H16">
-        <v>13.998891</v>
+        <v>42.514654</v>
       </c>
       <c r="I16">
-        <v>0.4682156243556299</v>
+        <v>0.7788476983219034</v>
       </c>
       <c r="J16">
-        <v>0.4682156243556299</v>
+        <v>0.7788476983219035</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1420,28 +1420,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.535068333333334</v>
+        <v>3.182317</v>
       </c>
       <c r="N16">
-        <v>7.605205000000001</v>
+        <v>9.546951</v>
       </c>
       <c r="O16">
-        <v>0.2543684215719345</v>
+        <v>0.1748954798583565</v>
       </c>
       <c r="P16">
-        <v>0.2543684215719344</v>
+        <v>0.1748954798583565</v>
       </c>
       <c r="Q16">
-        <v>11.82938175862833</v>
+        <v>45.09836872443933</v>
       </c>
       <c r="R16">
-        <v>106.464435827655</v>
+        <v>405.885318519954</v>
       </c>
       <c r="S16">
-        <v>0.1190992693226594</v>
+        <v>0.1362169419345858</v>
       </c>
       <c r="T16">
-        <v>0.1190992693226594</v>
+        <v>0.1362169419345858</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,16 +1464,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.666297</v>
+        <v>14.17155133333333</v>
       </c>
       <c r="H17">
-        <v>13.998891</v>
+        <v>42.514654</v>
       </c>
       <c r="I17">
-        <v>0.4682156243556299</v>
+        <v>0.7788476983219034</v>
       </c>
       <c r="J17">
-        <v>0.4682156243556299</v>
+        <v>0.7788476983219035</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1482,28 +1482,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.666297</v>
+        <v>14.17155133333333</v>
       </c>
       <c r="N17">
-        <v>13.998891</v>
+        <v>42.514654</v>
       </c>
       <c r="O17">
-        <v>0.4682156243556299</v>
+        <v>0.7788476983219034</v>
       </c>
       <c r="P17">
-        <v>0.4682156243556299</v>
+        <v>0.7788476983219035</v>
       </c>
       <c r="Q17">
-        <v>21.774327692209</v>
+        <v>200.8328671933018</v>
       </c>
       <c r="R17">
-        <v>195.968949229881</v>
+        <v>1807.495804739716</v>
       </c>
       <c r="S17">
-        <v>0.2192258708907323</v>
+        <v>0.6066037371813267</v>
       </c>
       <c r="T17">
-        <v>0.2192258708907323</v>
+        <v>0.6066037371813268</v>
       </c>
     </row>
   </sheetData>
